--- a/biology/Écologie/Mud-puddling/Mud-puddling.xlsx
+++ b/biology/Écologie/Mud-puddling/Mud-puddling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le mud-puddling (expression anglophone dont une traduction mot-à-mot approximative est « pataugeage dans la boue ») est un comportement observé chez de nombreuses espèces d'insectes, notamment des lépidoptères (papillons), consistant 
 à se poser sur des sols humides, excréments, cadavres ou matière végétale en décomposition, et à aspirer les fluides qui en suintent. 
-Cela permet à ces insectes d'obtenir des nutriments tels que des sels minéraux et des acides aminés[1],[2],[3]. 
+Cela permet à ces insectes d'obtenir des nutriments tels que des sels minéraux et des acides aminés. 
 Sous certaines conditions environnementales favorables, ce comportement donne lieu à d'importants regroupements (essaims) d'individus d'une ou plusieurs espèces.
-Le mud-puddling concerne le plus souvent les mâles [4],[1]. 
-Il est le plus souvent remarqué chez les lépidoptères, mais on l'observe également chez d'autres insectes, par exemple les Cicadellidae[5]. 
+Le mud-puddling concerne le plus souvent les mâles ,. 
+Il est le plus souvent remarqué chez les lépidoptères, mais on l'observe également chez d'autres insectes, par exemple les Cicadellidae. 
 </t>
         </is>
       </c>
@@ -517,9 +529,11 @@
           <t>Fluides corporels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce comportement se généralise à d'autres supports présentant une fine couche de liquide. Ainsi, certaines espèces sont également attirées par la sueur située sur la peau humaine[réf. à confirmer][6],[7]. Le sang et les larmes, bien qu'inhabituels, peuvent également les attirer. En plus des lépidoptères, on observe ce comportement également chez certaines abeilles comme les Halictidae[8],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comportement se généralise à d'autres supports présentant une fine couche de liquide. Ainsi, certaines espèces sont également attirées par la sueur située sur la peau humaine[réf. à confirmer],. Le sang et les larmes, bien qu'inhabituels, peuvent également les attirer. En plus des lépidoptères, on observe ce comportement également chez certaines abeilles comme les Halictidae,.
 </t>
         </is>
       </c>
